--- a/MillenniumHistory/Win32/ReleaseWindows/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/Win32/ReleaseWindows/Resource/AncientBooks/Article.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="56">
   <si>
     <t>@default</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Chapter</t>
   </si>
   <si>
+    <t>Character</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>標題</t>
+  </si>
+  <si>
+    <t>標題（簡稱）</t>
   </si>
   <si>
     <t>目錄</t>
@@ -1133,7 +1139,7 @@
   <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -1141,12 +1147,13 @@
     <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="5" width="11.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,101 +1163,104 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -1265,19 +1275,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1292,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1301,7 +1311,7 @@
         <v>1700180056</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1316,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -1325,7 +1335,7 @@
         <v>1700180056</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1340,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1349,7 +1359,7 @@
         <v>1700180056</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1364,16 +1374,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1388,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -1397,7 +1407,7 @@
         <v>1700180350</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1412,19 +1422,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1439,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
@@ -1448,7 +1458,7 @@
         <v>1700180868</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1463,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1484,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -1493,7 +1503,7 @@
         <v>1700180868</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1508,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1526,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1544,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -1562,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -1580,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -1598,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
@@ -1616,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
@@ -1634,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -1652,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1">
         <v>9</v>
@@ -1670,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -1688,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1">
         <v>11</v>
@@ -1706,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1">
         <v>12</v>
@@ -1724,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1742,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1760,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -1778,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
@@ -1796,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
@@ -1814,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
@@ -1832,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1">
         <v>7</v>
@@ -1850,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1">
         <v>8</v>
@@ -1868,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1">
         <v>9</v>
@@ -1886,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
@@ -1904,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1922,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -1940,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -1958,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1">
         <v>4</v>
@@ -1976,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -1994,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1">
         <v>6</v>
@@ -2012,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1">
         <v>7</v>
@@ -2030,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E44" s="1">
         <v>8</v>
@@ -2048,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2066,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -2084,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -2102,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -2120,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E49" s="1">
         <v>5</v>
@@ -2138,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E50" s="1">
         <v>6</v>
@@ -2156,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1">
         <v>7</v>
@@ -2174,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52" s="1">
         <v>8</v>
@@ -2192,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1">
         <v>9</v>
@@ -2210,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -2228,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E55" s="1">
         <v>11</v>
@@ -2246,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E56" s="1">
         <v>12</v>
@@ -2264,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E57" s="1">
         <v>13</v>
@@ -2282,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E58" s="1">
         <v>14</v>
@@ -2300,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1">
         <v>15</v>
@@ -2318,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E60" s="1">
         <v>16</v>
@@ -2336,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E61" s="1">
         <v>17</v>
@@ -2354,7 +2364,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E62" s="1">
         <v>18</v>
@@ -2372,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E63" s="1">
         <v>19</v>
@@ -2390,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E64" s="1">
         <v>20</v>
@@ -2408,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E65" s="1">
         <v>21</v>
@@ -2426,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E66" s="1">
         <v>22</v>
@@ -2444,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E67" s="1">
         <v>23</v>
@@ -2462,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E68" s="1">
         <v>24</v>
@@ -2480,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E69" s="1">
         <v>25</v>
@@ -2498,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E70" s="1">
         <v>26</v>
@@ -2516,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E71" s="1">
         <v>27</v>
@@ -2534,7 +2544,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E72" s="1">
         <v>28</v>
@@ -2552,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E73" s="1">
         <v>29</v>
@@ -2570,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E74" s="1">
         <v>30</v>
@@ -2588,7 +2598,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -2606,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76" s="1">
         <v>2</v>
@@ -2624,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -2642,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E78" s="1">
         <v>4</v>
@@ -2660,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
@@ -2678,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E80" s="1">
         <v>6</v>
@@ -2696,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81" s="1">
         <v>7</v>
@@ -2714,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E82" s="1">
         <v>8</v>
@@ -2732,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1">
         <v>9</v>
@@ -2750,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E84" s="1">
         <v>10</v>
@@ -2768,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E85" s="1">
         <v>11</v>
@@ -2786,7 +2796,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86" s="1">
         <v>12</v>
@@ -2804,7 +2814,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E87" s="1">
         <v>13</v>
@@ -2822,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E88" s="1">
         <v>14</v>
@@ -2840,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E89" s="1">
         <v>15</v>
@@ -2858,7 +2868,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E90" s="1">
         <v>16</v>
@@ -2876,7 +2886,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E91" s="1">
         <v>17</v>
@@ -2894,7 +2904,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E92" s="1">
         <v>18</v>
@@ -2912,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E93" s="1">
         <v>19</v>
@@ -2930,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E94" s="1">
         <v>20</v>
@@ -2948,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E95" s="1">
         <v>21</v>
@@ -2966,7 +2976,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E96" s="1">
         <v>22</v>
@@ -2984,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E97" s="1">
         <v>23</v>
@@ -3002,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E98" s="1">
         <v>24</v>
@@ -3020,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99" s="1">
         <v>25</v>
@@ -3038,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E100" s="1">
         <v>26</v>
@@ -3056,7 +3066,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E101" s="1">
         <v>27</v>
@@ -3074,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E102" s="1">
         <v>28</v>
@@ -3092,7 +3102,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E103" s="1">
         <v>29</v>
@@ -3110,7 +3120,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E104" s="1">
         <v>30</v>
@@ -3128,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E105" s="1">
         <v>31</v>
@@ -3146,7 +3156,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E106" s="1">
         <v>32</v>
@@ -3164,7 +3174,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E107" s="1">
         <v>33</v>
@@ -3182,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E108" s="1">
         <v>34</v>
@@ -3200,7 +3210,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E109" s="1">
         <v>35</v>
@@ -3218,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E110" s="1">
         <v>36</v>
@@ -3236,7 +3246,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E111" s="1">
         <v>37</v>
@@ -3254,7 +3264,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E112" s="1">
         <v>38</v>
@@ -3272,7 +3282,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E113" s="1">
         <v>39</v>
@@ -3290,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E114" s="1">
         <v>40</v>
@@ -3308,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E115" s="1">
         <v>41</v>
@@ -3326,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E116" s="1">
         <v>42</v>
@@ -3344,7 +3354,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E117" s="1">
         <v>43</v>
@@ -3362,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E118" s="1">
         <v>44</v>
@@ -3380,7 +3390,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E119" s="1">
         <v>45</v>
@@ -3398,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E120" s="1">
         <v>46</v>
@@ -3416,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E121" s="1">
         <v>47</v>
@@ -3434,7 +3444,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E122" s="1">
         <v>48</v>
@@ -3452,7 +3462,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E123" s="1">
         <v>49</v>
@@ -3470,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E124" s="1">
         <v>50</v>
@@ -3488,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E125" s="1">
         <v>51</v>
@@ -3506,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E126" s="1">
         <v>52</v>
@@ -3524,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E127" s="1">
         <v>53</v>
@@ -3542,7 +3552,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E128" s="1">
         <v>54</v>
@@ -3560,7 +3570,7 @@
         <v>6</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E129" s="1">
         <v>55</v>
@@ -3578,7 +3588,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E130" s="1">
         <v>56</v>
@@ -3596,7 +3606,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E131" s="1">
         <v>57</v>
@@ -3614,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E132" s="1">
         <v>58</v>
@@ -3632,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E133" s="1">
         <v>59</v>
@@ -3650,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E134" s="1">
         <v>60</v>
@@ -3668,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E135" s="1">
         <v>61</v>
@@ -3686,7 +3696,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E136" s="1">
         <v>62</v>
@@ -3704,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E137" s="1">
         <v>63</v>
@@ -3722,7 +3732,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E138" s="1">
         <v>64</v>
@@ -3740,7 +3750,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E139" s="1">
         <v>65</v>
@@ -3758,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E140" s="1">
         <v>66</v>
@@ -3776,7 +3786,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E141" s="1">
         <v>67</v>
@@ -3794,7 +3804,7 @@
         <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E142" s="1">
         <v>68</v>
@@ -3812,7 +3822,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E143" s="1">
         <v>69</v>
@@ -3830,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E144" s="1">
         <v>70</v>
@@ -3848,7 +3858,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
@@ -3857,7 +3867,7 @@
         <v>1200180001</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3872,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
@@ -3881,10 +3891,10 @@
         <v>1200180001</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -3899,7 +3909,7 @@
         <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E147" s="1">
         <v>3</v>
@@ -3908,10 +3918,10 @@
         <v>1200180002</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -3926,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E148" s="1">
         <v>4</v>
@@ -3935,7 +3945,7 @@
         <v>1700180868</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" ht="16" customHeight="1"/>
@@ -3959,71 +3969,71 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.6" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.6" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/MillenniumHistory/Win32/ReleaseWindows/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/Win32/ReleaseWindows/Resource/AncientBooks/Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="22188" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="正史類" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="58">
   <si>
     <t>@default</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Chapter</t>
-  </si>
-  <si>
     <t>Character</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
     <t>卷</t>
   </si>
   <si>
+    <t>章節卷</t>
+  </si>
+  <si>
     <t>其他作者</t>
   </si>
   <si>
@@ -92,106 +92,112 @@
     <t>volume</t>
   </si>
   <si>
+    <t>chapterVolume</t>
+  </si>
+  <si>
     <t>otherAuthor</t>
   </si>
   <si>
+    <t>authorNotes</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>前言</t>
+  </si>
+  <si>
+    <t>1700180914&amp;1700180915&amp;1700180916&amp;1700180917&amp;1700180918</t>
+  </si>
+  <si>
+    <t>詳校官&amp;覆勘&amp;覆校官&amp;校對官&amp;謄録</t>
+  </si>
+  <si>
+    <t>校勘</t>
+  </si>
+  <si>
+    <t>御製序</t>
+  </si>
+  <si>
+    <t>御製詩</t>
+  </si>
+  <si>
+    <t>御製文</t>
+  </si>
+  <si>
+    <t>1700180350&amp;1700180053&amp;1700181123&amp;1700181124&amp;1700181125</t>
+  </si>
+  <si>
+    <t>進表</t>
+  </si>
+  <si>
+    <t>職名</t>
+  </si>
+  <si>
+    <t>1000180001&amp;1200180001&amp;1200180002</t>
+  </si>
+  <si>
+    <t>集解&amp;索隠&amp;正義</t>
+  </si>
+  <si>
+    <t>史記序</t>
+  </si>
+  <si>
+    <t>史記序考證</t>
+  </si>
+  <si>
+    <t>目錄考證</t>
+  </si>
+  <si>
+    <t>本紀</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>世家</t>
+  </si>
+  <si>
+    <t>列傳</t>
+  </si>
+  <si>
+    <t>後序</t>
+  </si>
+  <si>
+    <t>補史記序</t>
+  </si>
+  <si>
+    <t>補撰并注</t>
+  </si>
+  <si>
+    <t>補史記</t>
+  </si>
+  <si>
+    <t>史記正義論例諡法解列國分野</t>
+  </si>
+  <si>
+    <t>正義論例</t>
+  </si>
+  <si>
+    <t>考證跋語</t>
+  </si>
+  <si>
     <t>authorDescribe</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>abbreviation</t>
-  </si>
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>前言</t>
-  </si>
-  <si>
-    <t>1700180914&amp;1700180915&amp;1700180916&amp;1700180917&amp;1700180918</t>
-  </si>
-  <si>
-    <t>詳校官&amp;覆勘&amp;覆校官&amp;校對官&amp;謄録</t>
-  </si>
-  <si>
-    <t>校勘</t>
-  </si>
-  <si>
-    <t>御製序</t>
-  </si>
-  <si>
-    <t>御製詩</t>
-  </si>
-  <si>
-    <t>御製文</t>
-  </si>
-  <si>
-    <t>1700180350&amp;1700180053&amp;1700181123&amp;1700181124&amp;1700181125</t>
-  </si>
-  <si>
-    <t>進表</t>
-  </si>
-  <si>
-    <t>職名</t>
-  </si>
-  <si>
-    <t>1000180001&amp;1200180001&amp;1200180002</t>
-  </si>
-  <si>
-    <t>集解&amp;索隠&amp;正義</t>
-  </si>
-  <si>
-    <t>史記序</t>
-  </si>
-  <si>
-    <t>史記序考證</t>
-  </si>
-  <si>
-    <t>目錄考證</t>
-  </si>
-  <si>
-    <t>本紀</t>
-  </si>
-  <si>
-    <t>表</t>
-  </si>
-  <si>
-    <t>書</t>
-  </si>
-  <si>
-    <t>世家</t>
-  </si>
-  <si>
-    <t>列傳</t>
-  </si>
-  <si>
-    <t>後序</t>
-  </si>
-  <si>
-    <t>補史記序</t>
-  </si>
-  <si>
-    <t>補撰并注</t>
-  </si>
-  <si>
-    <t>補史記</t>
-  </si>
-  <si>
-    <t>史記正義論例諡法解列國分野</t>
-  </si>
-  <si>
-    <t>正義論例</t>
-  </si>
-  <si>
-    <t>考證跋語</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -213,34 +219,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -254,14 +232,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,6 +271,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,7 +336,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,55 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,31 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +432,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,7 +456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +540,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -557,21 +563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,6 +595,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,148 +668,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -820,52 +826,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1136,70 +1142,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.77777777777778" style="1"/>
+    <col min="2" max="6" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1216,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -1230,8 +1236,11 @@
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1262,10 +1271,13 @@
       <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="2">
-        <f>IF(B5*10000+C5*1000+E5&gt;0,B5*10000+C5*1000+E5,"")</f>
+        <f>IF(B5*10000+C5*1000+F5&gt;0,B5*10000+C5*1000+F5,"")</f>
         <v>1001000131001</v>
       </c>
       <c r="B5" s="1">
@@ -1275,13 +1287,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
@@ -1289,10 +1301,13 @@
       <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A37" si="0">IF(B6*10000+C6*1000+E6&gt;0,B6*10000+C6*1000+E6,"")</f>
+        <f t="shared" ref="A6:A37" si="0">IF(B6*10000+C6*1000+F6&gt;0,B6*10000+C6*1000+F6,"")</f>
         <v>1001000131002</v>
       </c>
       <c r="B6" s="1">
@@ -1302,19 +1317,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1700180056</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>1001000131003</v>
@@ -1326,19 +1344,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1700180056</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>1001000131004</v>
@@ -1350,19 +1371,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1700180056</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>1001000131005</v>
@@ -1374,19 +1398,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>1001000131006</v>
@@ -1398,19 +1425,22 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
         <v>1700180350</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>1001000131007</v>
@@ -1422,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
@@ -1436,8 +1466,11 @@
       <c r="H11" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>1001000131008</v>
@@ -1449,19 +1482,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>1700180868</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>1001000131009</v>
@@ -1473,16 +1509,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>9</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>1001000131010</v>
@@ -1494,19 +1533,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1700180868</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>1001000132001</v>
@@ -1518,13 +1560,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>1001000132002</v>
@@ -1536,13 +1581,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>1001000132003</v>
@@ -1554,13 +1602,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>1001000132004</v>
@@ -1572,13 +1623,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>1001000132005</v>
@@ -1590,13 +1644,16 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>1001000132006</v>
@@ -1608,13 +1665,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>1001000132007</v>
@@ -1626,13 +1686,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>1001000132008</v>
@@ -1644,13 +1707,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>1001000132009</v>
@@ -1662,13 +1728,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>1001000132010</v>
@@ -1680,13 +1749,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>1001000132011</v>
@@ -1698,13 +1770,16 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>1001000132012</v>
@@ -1716,13 +1791,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>1001000133001</v>
@@ -1734,13 +1812,16 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>1001000133002</v>
@@ -1752,13 +1833,16 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>1001000133003</v>
@@ -1770,13 +1854,16 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>1001000133004</v>
@@ -1788,13 +1875,16 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>1001000133005</v>
@@ -1806,13 +1896,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>1001000133006</v>
@@ -1824,13 +1917,16 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>1001000133007</v>
@@ -1842,13 +1938,16 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1">
+        <v>19</v>
+      </c>
+      <c r="F33" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>1001000133008</v>
@@ -1860,13 +1959,16 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>1001000133009</v>
@@ -1878,13 +1980,16 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>1001000133010</v>
@@ -1896,13 +2001,16 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>1001000134001</v>
@@ -1914,15 +2022,18 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <f t="shared" ref="A38:A69" si="1">IF(B38*10000+C38*1000+E38&gt;0,B38*10000+C38*1000+E38,"")</f>
+        <f t="shared" ref="A38:A69" si="1">IF(B38*10000+C38*1000+F38&gt;0,B38*10000+C38*1000+F38,"")</f>
         <v>1001000134002</v>
       </c>
       <c r="B38" s="1">
@@ -1932,13 +2043,16 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>1001000134003</v>
@@ -1950,13 +2064,16 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>1001000134004</v>
@@ -1968,13 +2085,16 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>1001000134005</v>
@@ -1986,13 +2106,16 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>1001000134006</v>
@@ -2004,13 +2127,16 @@
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>1001000134007</v>
@@ -2022,13 +2148,16 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1">
+        <v>29</v>
+      </c>
+      <c r="F43" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <f t="shared" si="1"/>
         <v>1001000134008</v>
@@ -2040,13 +2169,16 @@
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>1001000135001</v>
@@ -2058,13 +2190,16 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>1001000135002</v>
@@ -2076,13 +2211,16 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1">
+        <v>32</v>
+      </c>
+      <c r="F46" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>1001000135003</v>
@@ -2094,13 +2232,16 @@
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>1001000135004</v>
@@ -2112,13 +2253,16 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>1001000135005</v>
@@ -2130,13 +2274,16 @@
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E49" s="1">
+        <v>35</v>
+      </c>
+      <c r="F49" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>1001000135006</v>
@@ -2148,13 +2295,16 @@
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E50" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <f t="shared" si="1"/>
         <v>1001000135007</v>
@@ -2166,13 +2316,16 @@
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1">
+        <v>37</v>
+      </c>
+      <c r="F51" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <f t="shared" si="1"/>
         <v>1001000135008</v>
@@ -2184,13 +2337,16 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E52" s="1">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <f t="shared" si="1"/>
         <v>1001000135009</v>
@@ -2202,13 +2358,16 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E53" s="1">
+        <v>39</v>
+      </c>
+      <c r="F53" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <f t="shared" si="1"/>
         <v>1001000135010</v>
@@ -2220,13 +2379,16 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E54" s="1">
+        <v>40</v>
+      </c>
+      <c r="F54" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
         <v>1001000135011</v>
@@ -2238,13 +2400,16 @@
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
         <v>1001000135012</v>
@@ -2256,13 +2421,16 @@
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <f t="shared" si="1"/>
         <v>1001000135013</v>
@@ -2274,13 +2442,16 @@
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1">
+        <v>43</v>
+      </c>
+      <c r="F57" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <f t="shared" si="1"/>
         <v>1001000135014</v>
@@ -2292,13 +2463,16 @@
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1">
+        <v>44</v>
+      </c>
+      <c r="F58" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>1001000135015</v>
@@ -2310,13 +2484,16 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E59" s="1">
+        <v>45</v>
+      </c>
+      <c r="F59" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <f t="shared" si="1"/>
         <v>1001000135016</v>
@@ -2328,13 +2505,16 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E60" s="1">
+        <v>46</v>
+      </c>
+      <c r="F60" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <f t="shared" si="1"/>
         <v>1001000135017</v>
@@ -2346,13 +2526,16 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="1">
         <v>47</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <f t="shared" si="1"/>
         <v>1001000135018</v>
@@ -2364,13 +2547,16 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62" s="1">
+        <v>48</v>
+      </c>
+      <c r="F62" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <f t="shared" si="1"/>
         <v>1001000135019</v>
@@ -2382,13 +2568,16 @@
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E63" s="1">
+        <v>49</v>
+      </c>
+      <c r="F63" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
         <v>1001000135020</v>
@@ -2400,13 +2589,16 @@
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1">
+        <v>50</v>
+      </c>
+      <c r="F64" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>1001000135021</v>
@@ -2418,13 +2610,16 @@
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1">
+        <v>51</v>
+      </c>
+      <c r="F65" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
         <v>1001000135022</v>
@@ -2436,13 +2631,16 @@
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E66" s="1">
+        <v>52</v>
+      </c>
+      <c r="F66" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>1001000135023</v>
@@ -2454,13 +2652,16 @@
         <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E67" s="1">
+        <v>53</v>
+      </c>
+      <c r="F67" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <f t="shared" si="1"/>
         <v>1001000135024</v>
@@ -2472,13 +2673,16 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E68" s="1">
+        <v>54</v>
+      </c>
+      <c r="F68" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <f t="shared" si="1"/>
         <v>1001000135025</v>
@@ -2490,15 +2694,18 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E69" s="1">
+        <v>55</v>
+      </c>
+      <c r="F69" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <f t="shared" ref="A70:A101" si="2">IF(B70*10000+C70*1000+E70&gt;0,B70*10000+C70*1000+E70,"")</f>
+        <f t="shared" ref="A70:A101" si="2">IF(B70*10000+C70*1000+F70&gt;0,B70*10000+C70*1000+F70,"")</f>
         <v>1001000135026</v>
       </c>
       <c r="B70" s="1">
@@ -2508,13 +2715,16 @@
         <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E70" s="1">
+        <v>56</v>
+      </c>
+      <c r="F70" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <f t="shared" si="2"/>
         <v>1001000135027</v>
@@ -2526,13 +2736,16 @@
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E71" s="1">
+        <v>57</v>
+      </c>
+      <c r="F71" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <f t="shared" si="2"/>
         <v>1001000135028</v>
@@ -2544,13 +2757,16 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E72" s="1">
+        <v>58</v>
+      </c>
+      <c r="F72" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <f t="shared" si="2"/>
         <v>1001000135029</v>
@@ -2562,13 +2778,16 @@
         <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E73" s="1">
+        <v>59</v>
+      </c>
+      <c r="F73" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <f t="shared" si="2"/>
         <v>1001000135030</v>
@@ -2580,13 +2799,16 @@
         <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74" s="1">
+        <v>60</v>
+      </c>
+      <c r="F74" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <f t="shared" si="2"/>
         <v>1001000136001</v>
@@ -2598,13 +2820,16 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E75" s="1">
+        <v>61</v>
+      </c>
+      <c r="F75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <f t="shared" si="2"/>
         <v>1001000136002</v>
@@ -2616,13 +2841,16 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76" s="1">
+        <v>62</v>
+      </c>
+      <c r="F76" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <f t="shared" si="2"/>
         <v>1001000136003</v>
@@ -2634,13 +2862,16 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E77" s="1">
+        <v>63</v>
+      </c>
+      <c r="F77" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <f t="shared" si="2"/>
         <v>1001000136004</v>
@@ -2652,13 +2883,16 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E78" s="1">
+        <v>64</v>
+      </c>
+      <c r="F78" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <f t="shared" si="2"/>
         <v>1001000136005</v>
@@ -2670,13 +2904,16 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E79" s="1">
+        <v>65</v>
+      </c>
+      <c r="F79" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <f t="shared" si="2"/>
         <v>1001000136006</v>
@@ -2688,13 +2925,16 @@
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E80" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F80" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <f t="shared" si="2"/>
         <v>1001000136007</v>
@@ -2706,13 +2946,16 @@
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E81" s="1">
+        <v>67</v>
+      </c>
+      <c r="F81" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <f t="shared" si="2"/>
         <v>1001000136008</v>
@@ -2724,13 +2967,16 @@
         <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E82" s="1">
+        <v>68</v>
+      </c>
+      <c r="F82" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <f t="shared" si="2"/>
         <v>1001000136009</v>
@@ -2742,13 +2988,16 @@
         <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E83" s="1">
+        <v>69</v>
+      </c>
+      <c r="F83" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <f t="shared" si="2"/>
         <v>1001000136010</v>
@@ -2760,13 +3009,16 @@
         <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1">
+        <v>70</v>
+      </c>
+      <c r="F84" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <f t="shared" si="2"/>
         <v>1001000136011</v>
@@ -2778,13 +3030,16 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E85" s="1">
+        <v>71</v>
+      </c>
+      <c r="F85" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <f t="shared" si="2"/>
         <v>1001000136012</v>
@@ -2796,13 +3051,16 @@
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E86" s="1">
+        <v>72</v>
+      </c>
+      <c r="F86" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <f t="shared" si="2"/>
         <v>1001000136013</v>
@@ -2814,13 +3072,16 @@
         <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E87" s="1">
+        <v>73</v>
+      </c>
+      <c r="F87" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <f t="shared" si="2"/>
         <v>1001000136014</v>
@@ -2832,13 +3093,16 @@
         <v>6</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E88" s="1">
+        <v>74</v>
+      </c>
+      <c r="F88" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <f t="shared" si="2"/>
         <v>1001000136015</v>
@@ -2850,13 +3114,16 @@
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E89" s="1">
+        <v>75</v>
+      </c>
+      <c r="F89" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <f t="shared" si="2"/>
         <v>1001000136016</v>
@@ -2868,13 +3135,16 @@
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E90" s="1">
+        <v>76</v>
+      </c>
+      <c r="F90" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <f t="shared" si="2"/>
         <v>1001000136017</v>
@@ -2886,13 +3156,16 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E91" s="1">
+        <v>77</v>
+      </c>
+      <c r="F91" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <f t="shared" si="2"/>
         <v>1001000136018</v>
@@ -2904,13 +3177,16 @@
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1">
+        <v>78</v>
+      </c>
+      <c r="F92" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <f t="shared" si="2"/>
         <v>1001000136019</v>
@@ -2922,13 +3198,16 @@
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E93" s="1">
+        <v>79</v>
+      </c>
+      <c r="F93" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <f t="shared" si="2"/>
         <v>1001000136020</v>
@@ -2940,13 +3219,16 @@
         <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E94" s="1">
+        <v>80</v>
+      </c>
+      <c r="F94" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <f t="shared" si="2"/>
         <v>1001000136021</v>
@@ -2958,13 +3240,16 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E95" s="1">
+        <v>81</v>
+      </c>
+      <c r="F95" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <f t="shared" si="2"/>
         <v>1001000136022</v>
@@ -2976,13 +3261,16 @@
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E96" s="1">
+        <v>82</v>
+      </c>
+      <c r="F96" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <f t="shared" si="2"/>
         <v>1001000136023</v>
@@ -2994,13 +3282,16 @@
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E97" s="1">
+        <v>83</v>
+      </c>
+      <c r="F97" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <f t="shared" si="2"/>
         <v>1001000136024</v>
@@ -3012,13 +3303,16 @@
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E98" s="1">
+        <v>84</v>
+      </c>
+      <c r="F98" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <f t="shared" si="2"/>
         <v>1001000136025</v>
@@ -3030,13 +3324,16 @@
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E99" s="1">
+        <v>85</v>
+      </c>
+      <c r="F99" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <f t="shared" si="2"/>
         <v>1001000136026</v>
@@ -3048,13 +3345,16 @@
         <v>6</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E100" s="1">
+        <v>86</v>
+      </c>
+      <c r="F100" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <f t="shared" si="2"/>
         <v>1001000136027</v>
@@ -3066,15 +3366,18 @@
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E101" s="1">
+        <v>87</v>
+      </c>
+      <c r="F101" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <f t="shared" ref="A102:A148" si="3">IF(B102*10000+C102*1000+E102&gt;0,B102*10000+C102*1000+E102,"")</f>
+        <f t="shared" ref="A102:A148" si="3">IF(B102*10000+C102*1000+F102&gt;0,B102*10000+C102*1000+F102,"")</f>
         <v>1001000136028</v>
       </c>
       <c r="B102" s="1">
@@ -3084,13 +3387,16 @@
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E102" s="1">
+        <v>88</v>
+      </c>
+      <c r="F102" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
         <v>1001000136029</v>
@@ -3102,13 +3408,16 @@
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E103" s="1">
+        <v>89</v>
+      </c>
+      <c r="F103" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
         <v>1001000136030</v>
@@ -3120,13 +3429,16 @@
         <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E104" s="1">
+        <v>90</v>
+      </c>
+      <c r="F104" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>1001000136031</v>
@@ -3138,13 +3450,16 @@
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E105" s="1">
+        <v>91</v>
+      </c>
+      <c r="F105" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <f t="shared" si="3"/>
         <v>1001000136032</v>
@@ -3156,13 +3471,16 @@
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106" s="1">
+        <v>92</v>
+      </c>
+      <c r="F106" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <f t="shared" si="3"/>
         <v>1001000136033</v>
@@ -3174,13 +3492,16 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E107" s="1">
+        <v>93</v>
+      </c>
+      <c r="F107" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <f t="shared" si="3"/>
         <v>1001000136034</v>
@@ -3192,13 +3513,16 @@
         <v>6</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E108" s="1">
+        <v>94</v>
+      </c>
+      <c r="F108" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <f t="shared" si="3"/>
         <v>1001000136035</v>
@@ -3210,13 +3534,16 @@
         <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E109" s="1">
+        <v>95</v>
+      </c>
+      <c r="F109" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <f t="shared" si="3"/>
         <v>1001000136036</v>
@@ -3228,13 +3555,16 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E110" s="1">
+        <v>96</v>
+      </c>
+      <c r="F110" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <f t="shared" si="3"/>
         <v>1001000136037</v>
@@ -3246,13 +3576,16 @@
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E111" s="1">
+        <v>97</v>
+      </c>
+      <c r="F111" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <f t="shared" si="3"/>
         <v>1001000136038</v>
@@ -3264,13 +3597,16 @@
         <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E112" s="1">
+        <v>98</v>
+      </c>
+      <c r="F112" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <f t="shared" si="3"/>
         <v>1001000136039</v>
@@ -3282,13 +3618,16 @@
         <v>6</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E113" s="1">
+        <v>99</v>
+      </c>
+      <c r="F113" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <f t="shared" si="3"/>
         <v>1001000136040</v>
@@ -3300,13 +3639,16 @@
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E114" s="1">
+        <v>100</v>
+      </c>
+      <c r="F114" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <f t="shared" si="3"/>
         <v>1001000136041</v>
@@ -3318,13 +3660,16 @@
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E115" s="1">
+        <v>101</v>
+      </c>
+      <c r="F115" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <f t="shared" si="3"/>
         <v>1001000136042</v>
@@ -3336,13 +3681,16 @@
         <v>6</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E116" s="1">
+        <v>102</v>
+      </c>
+      <c r="F116" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <f t="shared" si="3"/>
         <v>1001000136043</v>
@@ -3354,13 +3702,16 @@
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E117" s="1">
+        <v>103</v>
+      </c>
+      <c r="F117" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <f t="shared" si="3"/>
         <v>1001000136044</v>
@@ -3372,13 +3723,16 @@
         <v>6</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E118" s="1">
+        <v>104</v>
+      </c>
+      <c r="F118" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <f t="shared" si="3"/>
         <v>1001000136045</v>
@@ -3390,13 +3744,16 @@
         <v>6</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E119" s="1">
+        <v>105</v>
+      </c>
+      <c r="F119" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <f t="shared" si="3"/>
         <v>1001000136046</v>
@@ -3408,13 +3765,16 @@
         <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E120" s="1">
+        <v>106</v>
+      </c>
+      <c r="F120" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <f t="shared" si="3"/>
         <v>1001000136047</v>
@@ -3426,13 +3786,16 @@
         <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E121" s="1">
+        <v>107</v>
+      </c>
+      <c r="F121" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <f t="shared" si="3"/>
         <v>1001000136048</v>
@@ -3444,13 +3807,16 @@
         <v>6</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="1">
+        <v>108</v>
+      </c>
+      <c r="F122" s="1">
         <v>48</v>
       </c>
-      <c r="E122" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <f t="shared" si="3"/>
         <v>1001000136049</v>
@@ -3462,13 +3828,16 @@
         <v>6</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E123" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="F123" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <f t="shared" si="3"/>
         <v>1001000136050</v>
@@ -3480,13 +3849,16 @@
         <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E124" s="1">
+        <v>110</v>
+      </c>
+      <c r="F124" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <f t="shared" si="3"/>
         <v>1001000136051</v>
@@ -3498,13 +3870,16 @@
         <v>6</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E125" s="1">
+        <v>111</v>
+      </c>
+      <c r="F125" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <f t="shared" si="3"/>
         <v>1001000136052</v>
@@ -3516,13 +3891,16 @@
         <v>6</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E126" s="1">
+        <v>112</v>
+      </c>
+      <c r="F126" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <f t="shared" si="3"/>
         <v>1001000136053</v>
@@ -3534,13 +3912,16 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E127" s="1">
+        <v>113</v>
+      </c>
+      <c r="F127" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <f t="shared" si="3"/>
         <v>1001000136054</v>
@@ -3552,13 +3933,16 @@
         <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E128" s="1">
+        <v>114</v>
+      </c>
+      <c r="F128" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <f t="shared" si="3"/>
         <v>1001000136055</v>
@@ -3570,13 +3954,16 @@
         <v>6</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E129" s="1">
+        <v>115</v>
+      </c>
+      <c r="F129" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <f t="shared" si="3"/>
         <v>1001000136056</v>
@@ -3588,13 +3975,16 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E130" s="1">
+        <v>116</v>
+      </c>
+      <c r="F130" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <f t="shared" si="3"/>
         <v>1001000136057</v>
@@ -3606,13 +3996,16 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E131" s="1">
+        <v>117</v>
+      </c>
+      <c r="F131" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <f t="shared" si="3"/>
         <v>1001000136058</v>
@@ -3624,13 +4017,16 @@
         <v>6</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E132" s="1">
+        <v>118</v>
+      </c>
+      <c r="F132" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <f t="shared" si="3"/>
         <v>1001000136059</v>
@@ -3642,13 +4038,16 @@
         <v>6</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E133" s="1">
+        <v>119</v>
+      </c>
+      <c r="F133" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <f t="shared" si="3"/>
         <v>1001000136060</v>
@@ -3660,13 +4059,16 @@
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E134" s="1">
+        <v>120</v>
+      </c>
+      <c r="F134" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <f t="shared" si="3"/>
         <v>1001000136061</v>
@@ -3678,13 +4080,16 @@
         <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E135" s="1">
+        <v>121</v>
+      </c>
+      <c r="F135" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <f t="shared" si="3"/>
         <v>1001000136062</v>
@@ -3696,13 +4101,16 @@
         <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E136" s="1">
+        <v>122</v>
+      </c>
+      <c r="F136" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <f t="shared" si="3"/>
         <v>1001000136063</v>
@@ -3714,13 +4122,16 @@
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E137" s="1">
+        <v>123</v>
+      </c>
+      <c r="F137" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <f t="shared" si="3"/>
         <v>1001000136064</v>
@@ -3732,13 +4143,16 @@
         <v>6</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E138" s="1">
+        <v>124</v>
+      </c>
+      <c r="F138" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <f t="shared" si="3"/>
         <v>1001000136065</v>
@@ -3750,13 +4164,16 @@
         <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E139" s="1">
+        <v>125</v>
+      </c>
+      <c r="F139" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <f t="shared" si="3"/>
         <v>1001000136066</v>
@@ -3768,13 +4185,16 @@
         <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E140" s="1">
+        <v>126</v>
+      </c>
+      <c r="F140" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <f t="shared" si="3"/>
         <v>1001000136067</v>
@@ -3786,13 +4206,16 @@
         <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E141" s="1">
+        <v>127</v>
+      </c>
+      <c r="F141" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <f t="shared" si="3"/>
         <v>1001000136068</v>
@@ -3804,13 +4227,16 @@
         <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E142" s="1">
+        <v>128</v>
+      </c>
+      <c r="F142" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <f t="shared" si="3"/>
         <v>1001000136069</v>
@@ -3822,13 +4248,16 @@
         <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E143" s="1">
+        <v>129</v>
+      </c>
+      <c r="F143" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <f t="shared" si="3"/>
         <v>1001000136070</v>
@@ -3840,13 +4269,16 @@
         <v>6</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E144" s="1">
+        <v>130</v>
+      </c>
+      <c r="F144" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <f t="shared" si="3"/>
         <v>1001000137001</v>
@@ -3858,19 +4290,22 @@
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
         <v>1</v>
       </c>
-      <c r="F145" s="1">
+      <c r="G145" s="1">
         <v>1200180001</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <f t="shared" si="3"/>
         <v>1001000137002</v>
@@ -3882,22 +4317,25 @@
         <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
         <v>2</v>
       </c>
-      <c r="F146" s="1">
+      <c r="G146" s="1">
         <v>1200180001</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="I146" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="2">
         <f t="shared" si="3"/>
         <v>1001000137003</v>
@@ -3909,22 +4347,25 @@
         <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
         <v>3</v>
       </c>
-      <c r="F147" s="1">
+      <c r="G147" s="1">
         <v>1200180002</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="J147" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <f t="shared" si="3"/>
         <v>1001000137004</v>
@@ -3936,16 +4377,19 @@
         <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
         <v>4</v>
       </c>
-      <c r="F148" s="1">
+      <c r="G148" s="1">
         <v>1700180868</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>55</v>
+      <c r="I148" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="186" ht="16" customHeight="1"/>
@@ -3959,38 +4403,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="2:8">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="2:11">
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.6" spans="2:8">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3998,22 +4451,31 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:8">
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4021,19 +4483,28 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4045,14 +4516,111 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="2:11">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4061,14 +4629,111 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="2:11">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4077,14 +4742,111 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="2:11">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/MillenniumHistory/Win32/ReleaseWindows/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/Win32/ReleaseWindows/Resource/AncientBooks/Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9204"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="正史類" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
     <sheet name="紀事本末類" sheetId="4" r:id="rId4"/>
     <sheet name="載記類" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +126,7 @@
     <t>前言</t>
   </si>
   <si>
-    <t>1700180914&amp;1700180915&amp;1700180916&amp;1700180917&amp;1700180918</t>
+    <t>1600180914&amp;1600180915&amp;1600180916&amp;1600180917&amp;1600180918</t>
   </si>
   <si>
     <t>詳校官&amp;覆勘&amp;覆校官&amp;校對官&amp;謄録</t>
@@ -131,7 +144,7 @@
     <t>御製文</t>
   </si>
   <si>
-    <t>1700180350&amp;1700180053&amp;1700181123&amp;1700181124&amp;1700181125</t>
+    <t>1600180350&amp;1600180053&amp;1600181123&amp;1600181124&amp;1600181125</t>
   </si>
   <si>
     <t>進表</t>
@@ -140,7 +153,7 @@
     <t>職名</t>
   </si>
   <si>
-    <t>1000180001&amp;1200180001&amp;1200180002</t>
+    <t>1000180001&amp;1100180001&amp;1100180002</t>
   </si>
   <si>
     <t>集解&amp;索隠&amp;正義</t>
@@ -197,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1145,18 +1158,18 @@
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="6" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="6" width="11.775" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.8916666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.6666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.77777777777778" style="1"/>
+    <col min="11" max="11" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1326,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>1700180056</v>
+        <v>1600180056</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>34</v>
@@ -1353,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>1700180056</v>
+        <v>1600180056</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>35</v>
@@ -1380,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>1700180056</v>
+        <v>1600180056</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>36</v>
@@ -1434,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>1700180350</v>
+        <v>1600180350</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>39</v>
@@ -1491,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>43</v>
@@ -1542,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>44</v>
@@ -4299,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="1">
-        <v>1200180001</v>
+        <v>1100180001</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>51</v>
@@ -4326,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="G146" s="1">
-        <v>1200180001</v>
+        <v>1100180001</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>52</v>
@@ -4356,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="G147" s="1">
-        <v>1200180002</v>
+        <v>1100180002</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>54</v>
@@ -4386,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="G148" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>56</v>
@@ -4409,9 +4422,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="2:11">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4443,7 +4456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.6" spans="2:11">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4475,7 +4488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:11">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4522,9 +4535,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:11">
+    <row r="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4556,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:11">
+    <row r="2" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4588,7 +4601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:11">
+    <row r="3" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4635,9 +4648,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:11">
+    <row r="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4669,7 +4682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:11">
+    <row r="2" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +4714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:11">
+    <row r="3" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4748,9 +4761,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:11">
+    <row r="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4782,7 +4795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:11">
+    <row r="2" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4814,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:11">
+    <row r="3" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
